--- a/data-0706.xlsx
+++ b/data-0706.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindy/Downloads/A论文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A340F9-59EE-4D48-8B4A-A528E2DC6D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9CEBB-E2F7-864D-B731-C1F587914895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1600" windowWidth="25580" windowHeight="17120" xr2:uid="{B3FE60F6-209C-BE41-8BE4-106AE0E5179C}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Average Selling Price of  Residential Buildings, Growth Rate(%)</t>
   </si>
   <si>
-    <t>Moving Average Selling Price of  Residential Buildings, Growth Rate(%)Price/CPI</t>
-  </si>
-  <si>
     <t>Moving Average Investment of Real Estate-12month , Accumulated Growth Rate(%)</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Increase Demand*Increase Supply</t>
+  </si>
+  <si>
+    <t>Moving Average Selling Price of  Residential Buildings, Growth Rate(%)</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9129808-C6DB-B24F-996D-21E0A1131156}">
   <dimension ref="A1:AF186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -998,67 +998,67 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
